--- a/Code/Matlab/Quadruped_Simulation/Quadruped_Simulation_Framework/Utilities/Robot_Data/Hill_Muscle_Data.xlsx
+++ b/Code/Matlab/Quadruped_Simulation/Quadruped_Simulation_Framework/Utilities/Robot_Data/Hill_Muscle_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Quadruped_Robot\Code\Matlab\Quadruped_Simulation_Framework\Utilities\Robot_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Quadruped_Robot\Code\Matlab\Quadruped_Simulation\Quadruped_Simulation_Framework\Utilities\Robot_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0784B666-30A0-4665-8853-BCB421B1775F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9849EA-C543-496C-8E28-651626A461E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11D8638C-C21E-4F97-B2D3-93B6738A8267}"/>
   </bookViews>
@@ -19,6 +19,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -192,10 +199,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,7 +521,7 @@
   <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,96 +547,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="3" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="2" t="s">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
       <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2404,14 +2411,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
@@ -2422,6 +2421,14 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
